--- a/Documentation/Parts.xlsx
+++ b/Documentation/Parts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
   <si>
     <t>Item</t>
   </si>
@@ -93,21 +93,12 @@
     <t>4-bit D-Type Register 3-state Output</t>
   </si>
   <si>
-    <t>SN74LS173A</t>
-  </si>
-  <si>
     <t>0.1μF Electrolytic Capacitor</t>
   </si>
   <si>
     <t>0.01μF Ceramic Capacitor</t>
   </si>
   <si>
-    <t>Red LED</t>
-  </si>
-  <si>
-    <t>8 x 8-bit Register</t>
-  </si>
-  <si>
     <t>Price Table</t>
   </si>
   <si>
@@ -232,6 +223,60 @@
   </si>
   <si>
     <t>B1M</t>
+  </si>
+  <si>
+    <t>8-bit D Flip Flop</t>
+  </si>
+  <si>
+    <t>SN74LS377N</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/texas-instruments/SN74LS377N/296-1663-5-ND/277309</t>
+  </si>
+  <si>
+    <t>Square Red LED Small</t>
+  </si>
+  <si>
+    <t>Square Red LED Small (100 pack)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B01C3ZZT1E/ref=ppx_yo_dt_b_asin_title_o02_s00?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>1 of 8 Decoder/ Demultiplexer</t>
+  </si>
+  <si>
+    <t>SN74LS138N</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/texas-instruments/SN74LS138N/296-1639-5-ND/277285</t>
+  </si>
+  <si>
+    <t>100μF Electrolytic Capacitor</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/nichicon/UVZ1H101MPD1TD/493-13464-3-ND/4342020</t>
+  </si>
+  <si>
+    <t>470μF Electrolytic Capacitor</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/nichicon/UVR1H471MHD1TO/493-12789-3-ND/1978711</t>
+  </si>
+  <si>
+    <t>470Ω 5-band resistor 1%</t>
+  </si>
+  <si>
+    <t>Free with Red LED 100 pack</t>
+  </si>
+  <si>
+    <t>1KΩ 4-band resistor 5%</t>
+  </si>
+  <si>
+    <t>Register Bank</t>
+  </si>
+  <si>
+    <t>NOTE: This excludes the cost of wiring</t>
   </si>
 </sst>
 </file>
@@ -459,7 +504,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -468,24 +513,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -506,29 +533,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -554,8 +563,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -838,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:T28"/>
+  <dimension ref="B3:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,7 +906,7 @@
     <col min="12" max="12" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.140625" style="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="36.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -869,791 +915,892 @@
     <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="8" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="L8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="6"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="G8" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
+      <c r="L8" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="32"/>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="9"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="35"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
     </row>
     <row r="10" spans="2:20" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="L10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="32" t="s">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="R10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="S10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T10" s="33" t="s">
+      <c r="S10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="11">
         <f>T11*D11</f>
         <v>1.35</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="6">
         <v>8</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="29">
         <f>T12*I11</f>
         <v>7.04</v>
       </c>
-      <c r="L11" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="12">
+      <c r="L11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="6">
+        <v>11</v>
+      </c>
+      <c r="O11" s="29">
+        <f>N11*T15</f>
+        <v>33</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="20">
-        <f>T20*N11</f>
-        <v>3.2</v>
-      </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="11" t="s">
+      <c r="R11" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="27">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="R11" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="T11" s="38">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="12">
-        <v>2</v>
-      </c>
-      <c r="E12" s="20">
+      <c r="E12" s="11">
         <f>T14*D12</f>
         <v>2.34</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="12">
-        <v>8</v>
-      </c>
-      <c r="J12" s="20">
-        <f>T13*I12</f>
-        <v>12.4</v>
-      </c>
-      <c r="L12" s="27" t="s">
+      <c r="G12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="6">
+        <v>11</v>
+      </c>
+      <c r="J12" s="29">
+        <f>T15*I12</f>
         <v>33</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="12">
-        <v>2</v>
-      </c>
-      <c r="O12" s="20">
-        <f>T16*N12</f>
-        <v>1.22</v>
-      </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="27" t="s">
+      <c r="L12" s="15"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="R12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="T12" s="39">
+      <c r="S12" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" s="11">
         <v>0.88</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="12">
+        <v>67</v>
+      </c>
+      <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="11">
         <f>T28*D13</f>
         <v>0.84</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="12">
-        <v>64</v>
-      </c>
-      <c r="J13" s="20">
-        <f>T19*I13</f>
-        <v>3.84</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="12">
-        <v>1</v>
-      </c>
-      <c r="O13" s="20">
-        <f>T12*N13</f>
-        <v>0.88</v>
-      </c>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="11" t="s">
+      <c r="G13" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="2">
+        <v>16</v>
+      </c>
+      <c r="J13" s="29">
+        <f>I13*T17</f>
+        <v>14.4</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="T13" s="39">
+      <c r="R13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" s="11">
         <v>1.55</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6">
         <v>3</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="11">
         <f>T19*D14</f>
         <v>0.18</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="12">
+      <c r="G14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="29">
+        <f>I14*T31</f>
+        <v>0.84</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="20">
-        <f>T26*I14</f>
-        <v>0.92</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N14" s="12">
+      <c r="S14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="11">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="O14" s="20">
-        <f>T15*N14</f>
-        <v>3</v>
-      </c>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" s="39">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" s="20">
+      <c r="E15" s="11">
         <f>T19*D15</f>
         <v>0.06</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="G15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
+      <c r="J15" s="29">
+        <f>T26*I15</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6">
+        <v>103</v>
+      </c>
+      <c r="D16" s="6">
         <v>4</v>
       </c>
-      <c r="J15" s="20">
-        <f>T15*I15</f>
-        <v>12</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="12">
-        <v>8</v>
-      </c>
-      <c r="O15" s="20">
-        <f>T19*N15</f>
-        <v>0.48</v>
-      </c>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="S15" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="T15" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="12">
-        <v>103</v>
-      </c>
-      <c r="D16" s="12">
-        <v>4</v>
-      </c>
-      <c r="E16" s="20">
+      <c r="E16" s="11">
         <f>T27*D16</f>
         <v>0.96</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="22">
-        <f>SUM(J11:J15)</f>
-        <v>36.200000000000003</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16" s="12">
-        <v>1</v>
-      </c>
-      <c r="O16" s="20">
-        <f>T26*N16</f>
-        <v>0.23</v>
-      </c>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="S16" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="T16" s="39">
+      <c r="G16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2">
+        <v>6</v>
+      </c>
+      <c r="J16" s="29">
+        <f>I16*T32</f>
+        <v>0.47423999999999999</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T16" s="11">
         <v>0.61</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="11">
         <f>T26*D17</f>
         <v>0.46</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="24"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="27" t="s">
+      <c r="G17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
+      <c r="J17" s="29">
+        <f>I17*T33</f>
+        <v>0.46160000000000001</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="6">
+        <v>8</v>
+      </c>
+      <c r="J18" s="29">
+        <f>T29*I18</f>
+        <v>12.08</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="R17" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="S17" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="T17" s="39">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="12">
-        <v>3</v>
-      </c>
-      <c r="E18" s="20">
+      <c r="T18" s="11">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6">
+        <v>4</v>
+      </c>
+      <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="24"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="S18" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="T18" s="39">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="12">
-        <v>4</v>
-      </c>
-      <c r="E19" s="20">
-        <v>0</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="24"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="27" t="s">
-        <v>45</v>
+      <c r="G19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="6">
+        <v>110</v>
+      </c>
+      <c r="J19" s="29">
+        <f>I19*T30</f>
+        <v>6.5669999999999993</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="R19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="S19" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="T19" s="39">
+      <c r="S19" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" s="11">
         <f>6/100</f>
         <v>0.06</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="C20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="11">
         <v>0</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="24"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="27" t="s">
-        <v>47</v>
+      <c r="G20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="6">
+        <v>46</v>
+      </c>
+      <c r="J20" s="29">
+        <v>0</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="R20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="T20" s="11">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="6">
+        <v>8</v>
+      </c>
+      <c r="J21" s="29">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="S20" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="T20" s="39">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="R21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S21" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="T21" s="11">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E22" s="11">
         <v>0</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="24"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="27" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="11"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="S21" s="37" t="s">
+      <c r="S22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="T21" s="39">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="T22" s="11">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E23" s="11">
         <v>0</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="24"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="27" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="11"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="R22" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S22" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="T22" s="39">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="12">
+      <c r="S23" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="T23" s="11">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="8">
         <v>1</v>
       </c>
-      <c r="E23" s="20">
-        <v>0</v>
-      </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="24"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S23" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="T23" s="39">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="14">
-        <v>1</v>
-      </c>
-      <c r="E24" s="21">
+      <c r="E24" s="12">
         <f>T15*D24</f>
         <v>3</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="24"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="27" t="s">
-        <v>64</v>
+      <c r="G24" s="7"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="12"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="S24" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="T24" s="39">
+        <v>57</v>
+      </c>
+      <c r="S24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="T24" s="11">
         <v>4.95</v>
       </c>
     </row>
     <row r="25" spans="2:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="22">
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="13">
         <f>SUM(E11:E24)</f>
         <v>9.19</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="G25" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="22">
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="13">
+        <f>SUM(J11:J24)</f>
+        <v>76.242840000000001</v>
+      </c>
+      <c r="L25" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="39"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="13">
         <f>SUM(O11:O24)</f>
-        <v>9.0100000000000016</v>
-      </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="27" t="s">
-        <v>65</v>
+        <v>33</v>
+      </c>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S25" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="T25" s="39">
+      <c r="S25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="T25" s="11">
         <f>17.99/10</f>
         <v>1.7989999999999999</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="Q26" s="11" t="s">
+      <c r="Q26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="T26" s="11">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q27" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S26" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="T26" s="39">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="Q27" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="R27" s="2">
         <v>103</v>
       </c>
-      <c r="S27" s="37" t="s">
+      <c r="S27" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="T27" s="11">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="S28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="T28" s="11">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q29" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="T27" s="39">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="Q28" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="R28" s="2" t="s">
+      <c r="R29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S29" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="S28" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="T28" s="39">
+      <c r="T29" s="11">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S30" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="T30" s="11">
+        <f>(5.97)/100</f>
+        <v>5.9699999999999996E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q31" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S31" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="T31" s="11">
         <v>0.84</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S32" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="T32" s="28">
+        <v>7.9039999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="T33" s="28">
+        <v>0.23080000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="17:20" x14ac:dyDescent="0.25">
+      <c r="Q34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T34" s="28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="Q8:T9"/>
     <mergeCell ref="L8:O9"/>
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="G8:J9"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="Q8:T9"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="S16" r:id="rId1"/>
@@ -1673,8 +1820,13 @@
     <hyperlink ref="S26" r:id="rId15"/>
     <hyperlink ref="S27" r:id="rId16"/>
     <hyperlink ref="S28" r:id="rId17"/>
+    <hyperlink ref="S29" r:id="rId18"/>
+    <hyperlink ref="S30" r:id="rId19"/>
+    <hyperlink ref="S31" r:id="rId20"/>
+    <hyperlink ref="S32" r:id="rId21"/>
+    <hyperlink ref="S33" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId18"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>